--- a/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -367,6 +367,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,13 +391,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +681,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,40 +706,40 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -748,34 +748,36 @@
       <c r="C7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12">
+      <c r="C9" s="6">
         <v>44</v>
       </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1042,12 +1044,12 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1225,7 +1227,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -364,9 +364,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,6 +392,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +681,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,59 +706,59 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -768,16 +768,16 @@
       <c r="C9" s="6">
         <v>44</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1044,12 +1044,12 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -367,6 +367,9 @@
     <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,9 +395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +681,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,57 +706,57 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
@@ -766,25 +766,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>44</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -1044,12 +1044,12 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/SPA-AngularJS/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="6"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
